--- a/main_stims.xlsx
+++ b/main_stims.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanbrady/Desktop/LabResearch/EEG_Protocols/AnonComm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanbrady/Desktop/LabResearch/IndependentStudy/AnonComm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9AF0C7-630A-4C4C-9FA3-FD533C6588B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB8A03C-5816-3548-90EB-A6DBC8BE75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36480" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,131 +63,107 @@
         </r>
       </text>
     </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E5458DB3-6A1D-4BE3-8E91-52D53E0F1609}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Values
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+          </rPr>
+          <t>Each iteration of this loop, a different one of these values will be chosen. This will be the value of the variable named above.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>main_questions</t>
   </si>
   <si>
-    <t>What was the best vacation you’ve ever taken?</t>
-  </si>
-  <si>
-    <t>What quirks do you have?</t>
-  </si>
-  <si>
-    <t>What do you hope never changes?</t>
-  </si>
-  <si>
-    <t>What would you rate 10/10</t>
+    <t>main_responses</t>
+  </si>
+  <si>
+    <t>inflam_questions</t>
+  </si>
+  <si>
+    <t>inflam_responses</t>
+  </si>
+  <si>
+    <t>practice_questions</t>
+  </si>
+  <si>
+    <t>practice_response</t>
   </si>
   <si>
     <t>What skill would you like to master?</t>
   </si>
   <si>
+    <t>I would love to learn how to juggle. I know that’s kind of weird but it's super fun. Do you have a skill you're trying to learn?</t>
+  </si>
+  <si>
+    <t>Do you think religion should or should not be integrated into education?</t>
+  </si>
+  <si>
+    <t>I think it should. I think a lot of people could benefit from having a role model in their life and something to lean on. Do you have an opinion on that?</t>
+  </si>
+  <si>
+    <t>What causes are you passionate about?</t>
+  </si>
+  <si>
+    <t>I really care about the planet…I know that sounds very basic but I really do think it deserves more attention. Do you have a cause you're passionate about?</t>
+  </si>
+  <si>
     <t>What is the best way to start the day?</t>
   </si>
   <si>
-    <t>What is something you’ve had to unlearn?</t>
+    <t>I'd have to say a cup of coffee and yoga outside. You just feel so relaxed and awake after! Do you have a special morning routine?</t>
+  </si>
+  <si>
+    <t>Should AI be allowed to make judicial decisions?</t>
+  </si>
+  <si>
+    <t>I really don't know… on one hand I think it would be more consistent on the other it seems a little dystopic. How do you feel about that?</t>
+  </si>
+  <si>
+    <t>Do you have any pet peeves?</t>
+  </si>
+  <si>
+    <t>Yes! Dishes in the sink are SO triggering! Do you have anything that annoys you like that?</t>
   </si>
   <si>
     <t>What’s the best way a person can spend their time?</t>
   </si>
   <si>
-    <t>What causes are you passionate about?</t>
-  </si>
-  <si>
-    <t>Do you have any pet peeves?</t>
+    <t>Either learning or spending time with friends and family I guess. That seems like a cliché answer though. How do you prefer to spend your time?</t>
+  </si>
+  <si>
+    <t>How tightly should we regulate immigration?</t>
+  </si>
+  <si>
+    <t>There needs to be a certain amount of control over it. I don't think we can have just anyone crossing the border unfortunately. What are your thoughts on that?</t>
   </si>
   <si>
     <t>Would you say you are an introvert or an extrovert?</t>
   </si>
   <si>
-    <t>inflam_questions</t>
-  </si>
-  <si>
-    <t>inflam_responses</t>
-  </si>
-  <si>
-    <t>main_responses</t>
-  </si>
-  <si>
-    <t>This ones easy. Skiing in Winter Park after a big snow storm. Wbu?</t>
-  </si>
-  <si>
-    <t>Oh man…that's hard. I guess this one time my family and I went to Yellowstone and rented a cabin. That was pretty awesome. Wbu?</t>
-  </si>
-  <si>
-    <t>I love my friend group here and hope that I always keep in touch with them I guess. Do you have anything?</t>
-  </si>
-  <si>
-    <t>I would love to learn how to juggle. I know that’s kind of weird but it's super fun. Do you have a skill you're trying to learn?</t>
-  </si>
-  <si>
-    <t>Haha, I guess I never walk under a ladder. I don't know why I just don't. Do you have any weird things you?</t>
-  </si>
-  <si>
-    <t>I'd have to say a cup of coffee and yoga outside. You just feel so relaxed and awake after! Do you have a special morning routine?</t>
-  </si>
-  <si>
-    <t>Uh, I guess study habits. High school did a bad job getting me ready for college…do you have any habits you’re trying to break?</t>
-  </si>
-  <si>
-    <t>Either learning or spending time with friends and family I guess. That seems like a cliché answer though. How do you prefer to spend your time?</t>
-  </si>
-  <si>
-    <t>Yes! Dishes in the sink are SO triggering! Do you have anything that annoys you like that?</t>
-  </si>
-  <si>
     <t>Somewhere in the middle I guess. I like spending time with people but after awhile it stresses me out. How about you?</t>
-  </si>
-  <si>
-    <t>I really care about the planet…I know that sounds very basic but I really do think it deserves more attention. Do you have a cause you're passionate about?</t>
-  </si>
-  <si>
-    <t>Who do you think should have won the 2020 elections?</t>
-  </si>
-  <si>
-    <t>I honestly don't know. None of the canidates seemed that good tbh. What do you think?</t>
-  </si>
-  <si>
-    <t>Do you think religion should or should not be integrated into education?</t>
-  </si>
-  <si>
-    <t>I think it should. I think a lot of people could benefit from having a role model in their life and something to lean on. Do you have an opinion on that?</t>
-  </si>
-  <si>
-    <t>I believe that the people who made their fortunes in an honest way deserve to do what they want with it. How do you feel about it?</t>
-  </si>
-  <si>
-    <t>Should there be such a large wealth disparity in our country?</t>
-  </si>
-  <si>
-    <t>Should AI be allowed to make judicial decisions?</t>
-  </si>
-  <si>
-    <t>I really don't know… on one hand I think it would be more consistent on the other it seems a little dystopic. How do you feel about that?</t>
-  </si>
-  <si>
-    <t>How tightly should we regulate immigration?</t>
-  </si>
-  <si>
-    <t>There needs to be a certain amount of control over it. I don't think we can have just anyone crossing the border unfortunately. What are your thoughts on that?</t>
-  </si>
-  <si>
-    <t>Should we raise the pass rate for classes to a B-?</t>
-  </si>
-  <si>
-    <t>As harsh as it sounds I think it would give the bachelors degree the same level of exclusivity it use to have which might not be bad. What do you think?</t>
-  </si>
-  <si>
-    <t>practice_questions</t>
-  </si>
-  <si>
-    <t>practice_response</t>
   </si>
 </sst>
 </file>
@@ -211,12 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,6 +197,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -256,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -265,7 +241,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,18 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="123.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="119.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -606,147 +583,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="A1:XFD1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
-      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(A1,ROW(INDIRECT("1:"&amp;LEN(A1))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))),ISNUMBER(SEARCH(LEFT(A1,1),"abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_")),NOT(ISNUMBER(SEARCH("~*",A1))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="G1:XFD1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(G1,ROW(INDIRECT("1:"&amp;LEN(G1))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))),ISNUMBER(SEARCH(LEFT(G1,1),"abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_")),NOT(ISNUMBER(SEARCH("~*",G1))))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -756,12 +675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -875,7 +788,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -884,22 +797,13 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -915,10 +819,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/main_stims.xlsx
+++ b/main_stims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanbrady/Desktop/LabResearch/IndependentStudy/AnonComm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB8A03C-5816-3548-90EB-A6DBC8BE75E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B654AF2A-A3E7-4A46-89EB-C53811B4D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,9 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
